--- a/biology/Botanique/Torbato/Torbato.xlsx
+++ b/biology/Botanique/Torbato/Torbato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le torbato est un cépage italien de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le torbato est un cépage d'origine de la Sardaigne. Sur l'île, on lui attribue une origine catalan. Il aurait été introduit durant l'occupation catalan de la Sardaigne.
 Il est classé cépage d'appoint en DOC Alghero. Il est classé recommandé ou autorisé dans les provinces Cagliari, Nuoro, Sassari et Oristano de la région Sardaigne. En 1998, sa culture couvrait une superficie de 59 ha. 
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré carminé.
 Jeunes feuilles duveteuses, jaunâtres à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque moyenne: 30 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est cylindrique, lâche, parfois ailée. Le cépage est de moyenne vigueur mais assez fertile. Le torbato assez sensible à l'oïdium au mildiou, au court-noué et à la carence magnésienne. Il est généralement conduit en taille courte. 
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le torbato  est connu sous les noms de canina, caninu, cuscosedda bianca, malvoisie des Pyrénées-Orientales, malvoisie du Roussillon, malvoisie Tourbat, razola, torbat, torbato bianco, turbato, trubat iberico, turbau.
 </t>
